--- a/BLKSupportPortalDemo/Data/Login.xlsx
+++ b/BLKSupportPortalDemo/Data/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OwnC#Programmes\BLKSupportPortalDemo\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\BLKAutomation\BLKSupportPortalDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC48C3-AA4C-42FF-8CA6-A335AA6709A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D2C132-2FCD-43C4-A430-3A1B71BEE6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>nuttan.swain@hexagon.com</t>
   </si>
   <si>
-    <t>RakutenP@ssw0rd</t>
+    <t>HyundaiCreta@2024#</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
